--- a/Monthly Report - JAN 2020.xlsx
+++ b/Monthly Report - JAN 2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
   <si>
     <t>Month:</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>INTHYD19AJ007</t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t>PONGAL HOLIDAY</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,6 +588,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,13 +651,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,15 +1013,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1018,26 +1033,26 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1046,33 +1061,33 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1096,14 +1111,14 @@
       <c r="B9" s="7">
         <v>43831</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
@@ -1178,12 +1193,12 @@
       <c r="B13" s="7">
         <v>43835</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
@@ -1327,81 +1342,51 @@
       <c r="B20" s="7">
         <v>43842</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>43843</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="10">
-        <v>7</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="10">
-        <v>14</v>
-      </c>
+      <c r="C21" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>43844</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="10">
-        <v>7</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="10">
-        <v>14</v>
-      </c>
+      <c r="C22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>43845</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="10">
-        <v>7</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="10">
-        <v>14</v>
-      </c>
+      <c r="C23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
@@ -1476,12 +1461,12 @@
       <c r="B27" s="7">
         <v>43849</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
@@ -1625,12 +1610,12 @@
       <c r="B34" s="7">
         <v>43856</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
@@ -1748,7 +1733,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C27:H27"/>
@@ -1761,6 +1746,9 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
